--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value140.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value140.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9253168798900564</v>
+        <v>1.606831789016724</v>
       </c>
       <c r="B1">
-        <v>1.773124757669469</v>
+        <v>1.837117433547974</v>
       </c>
       <c r="C1">
-        <v>3.163378399319023</v>
+        <v>5.114257335662842</v>
       </c>
       <c r="D1">
-        <v>2.59563888934305</v>
+        <v>1.894317626953125</v>
       </c>
       <c r="E1">
-        <v>1.038065210829916</v>
+        <v>0.6346949338912964</v>
       </c>
     </row>
   </sheetData>
